--- a/00_Umformungen_Variablen_dUKE.xlsx
+++ b/00_Umformungen_Variablen_dUKE.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="711">
   <si>
     <t>ID2</t>
   </si>
@@ -2673,6 +2673,9 @@
   </si>
   <si>
     <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Entfernen der Informationen außerhalb der Tabelle sowie der Spalte "Reihenfolge"; Transponieren; Umbennen "Plug-In Hybrid"</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3031,7 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3351,6 +3354,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="25" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Gut" xfId="4" builtinId="26"/>
@@ -3686,9 +3695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -4831,8 +4840,12 @@
         <v>616</v>
       </c>
       <c r="F48" s="69"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="48"/>
+      <c r="G48" s="129" t="s">
+        <v>706</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>710</v>
+      </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
@@ -4855,7 +4868,9 @@
       <c r="F49" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="G49" s="67"/>
+      <c r="G49" s="128" t="s">
+        <v>705</v>
+      </c>
       <c r="H49" s="48"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>

--- a/00_Umformungen_Variablen_dUKE.xlsx
+++ b/00_Umformungen_Variablen_dUKE.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="716">
   <si>
     <t>ID2</t>
   </si>
@@ -2370,9 +2370,6 @@
     <t>Anzahl PKWs</t>
   </si>
   <si>
-    <t>IEA</t>
-  </si>
-  <si>
     <t>Neuzulassungen</t>
   </si>
   <si>
@@ -2389,9 +2386,6 @@
   </si>
   <si>
     <t>Emissionen</t>
-  </si>
-  <si>
-    <t>https://www.kba.de/SharedDocs/Downloads/DE/Statistik/Fahrzeuge/FZ27/fz27_202304.xlsx;jsessionid=C1F4D947C4884B5D0DAD910E82627D8D.live21324?__blob=publicationFile&amp;v=11</t>
   </si>
   <si>
     <t>ID</t>
@@ -2676,6 +2670,27 @@
   </si>
   <si>
     <t>Entfernen der Informationen außerhalb der Tabelle sowie der Spalte "Reihenfolge"; Transponieren; Umbennen "Plug-In Hybrid"</t>
+  </si>
+  <si>
+    <t>https://www.kba.de/SharedDocs/Downloads/DE/Statistik/Fahrzeuge/FZ27/fz27_202307.xlsx;jsessionid=C1338766091363A19FCE4A35649AAD56.live21321?__blob=publicationFile&amp;v=3</t>
+  </si>
+  <si>
+    <t>Auswahl des Tabellenblattes "FZ 27.9"; Aufheben der Verbindungen; Erstellen der Spalte "Konventionelle Antriebe" als Differenz von Gesamtzahl und Alternativen Antrieben; Löschen der Spalten mit %-Angaben sowie Summen einzelner Kategorien; Transponieren; Löschen der Zeilen "Alternative Antriebe" und Gesamt</t>
+  </si>
+  <si>
+    <t>Ladesäulen</t>
+  </si>
+  <si>
+    <t>https://www.bundesnetzagentur.de/SharedDocs/Downloads/DE/Sachgebiete/Energie/Unternehmen_Institutionen/E_Mobilitaet/Ladesaeuleninfrastruktur.xlsx?__blob=publicationFile&amp;v=27</t>
+  </si>
+  <si>
+    <t>Anzal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entfernen der Informationen außerhalb der Tabelle </t>
+  </si>
+  <si>
+    <t>https://www.dashboard-deutschland.de/indicator/tile_1667921381760?origin=dashboard&amp;db=energie&amp;category=energie</t>
   </si>
 </sst>
 </file>
@@ -3031,7 +3046,7 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3360,6 +3375,16 @@
     <xf numFmtId="17" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Gut" xfId="4" builtinId="26"/>
@@ -3441,8 +3466,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J71" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Standard 2">
-  <autoFilter ref="A1:J71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:J72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Standard 2">
+  <autoFilter ref="A1:J72"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID" dataDxfId="9"/>
     <tableColumn id="2" name="Kapitel" dataDxfId="8"/>
@@ -3693,11 +3718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3717,7 +3742,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27.6">
       <c r="A1" s="59" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>412</v>
@@ -3735,64 +3760,64 @@
         <v>414</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>701</v>
+      </c>
+      <c r="J1" s="124" t="s">
         <v>707</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="J1" s="124" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="72">
       <c r="A2" s="53" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>597</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D2" s="127" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G2" s="123" t="s">
+        <v>704</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>706</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>708</v>
       </c>
       <c r="I2" s="53"/>
       <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="53" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>597</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -3801,7 +3826,7 @@
     </row>
     <row r="4" spans="1:10" ht="27.6">
       <c r="A4" s="53" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>597</v>
@@ -3823,7 +3848,7 @@
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1">
       <c r="A5" s="107" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B5" s="108" t="s">
         <v>598</v>
@@ -3841,7 +3866,7 @@
         <v>509</v>
       </c>
       <c r="G5" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="32"/>
@@ -3849,7 +3874,7 @@
     </row>
     <row r="6" spans="1:10" ht="27.6">
       <c r="A6" s="107" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B6" s="108" t="s">
         <v>598</v>
@@ -3860,14 +3885,14 @@
       <c r="D6" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="132" t="s">
         <v>399</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>509</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="85"/>
@@ -3875,7 +3900,7 @@
     </row>
     <row r="7" spans="1:10" ht="34.5" customHeight="1">
       <c r="A7" s="107" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B7" s="108" t="s">
         <v>598</v>
@@ -3891,7 +3916,7 @@
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="32"/>
@@ -3899,7 +3924,7 @@
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1">
       <c r="A8" s="107" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B8" s="108" t="s">
         <v>598</v>
@@ -3915,7 +3940,7 @@
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="32"/>
@@ -3923,7 +3948,7 @@
     </row>
     <row r="9" spans="1:10" ht="27.6">
       <c r="A9" s="110" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B9" s="108" t="s">
         <v>598</v>
@@ -3941,7 +3966,7 @@
         <v>448</v>
       </c>
       <c r="G9" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="32"/>
@@ -3949,7 +3974,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="111" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B10" s="108" t="s">
         <v>598</v>
@@ -3965,7 +3990,7 @@
         <v>448</v>
       </c>
       <c r="G10" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="32"/>
@@ -3973,7 +3998,7 @@
     </row>
     <row r="11" spans="1:10" ht="44.25" customHeight="1">
       <c r="A11" s="111" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B11" s="108" t="s">
         <v>598</v>
@@ -3991,7 +4016,7 @@
         <v>544</v>
       </c>
       <c r="G11" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="32"/>
@@ -3999,7 +4024,7 @@
     </row>
     <row r="12" spans="1:10" ht="30.75" customHeight="1">
       <c r="A12" s="111" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B12" s="108" t="s">
         <v>598</v>
@@ -4017,7 +4042,7 @@
         <v>544</v>
       </c>
       <c r="G12" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="32"/>
@@ -4025,7 +4050,7 @@
     </row>
     <row r="13" spans="1:10" ht="38.25" customHeight="1">
       <c r="A13" s="111" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B13" s="108" t="s">
         <v>598</v>
@@ -4037,13 +4062,13 @@
         <v>43</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>544</v>
       </c>
       <c r="G13" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="32"/>
@@ -4051,7 +4076,7 @@
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
       <c r="A14" s="111" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B14" s="108" t="s">
         <v>598</v>
@@ -4063,13 +4088,13 @@
         <v>356</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G14" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="32"/>
@@ -4077,7 +4102,7 @@
     </row>
     <row r="15" spans="1:10" ht="43.2">
       <c r="A15" s="103" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B15" s="102" t="s">
         <v>596</v>
@@ -4095,7 +4120,7 @@
         <v>473</v>
       </c>
       <c r="G15" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H15" s="48"/>
       <c r="I15" s="32"/>
@@ -4103,7 +4128,7 @@
     </row>
     <row r="16" spans="1:10" ht="43.2">
       <c r="A16" s="103" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B16" s="102" t="s">
         <v>596</v>
@@ -4121,7 +4146,7 @@
         <v>448</v>
       </c>
       <c r="G16" s="122" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="32"/>
@@ -4129,7 +4154,7 @@
     </row>
     <row r="17" spans="1:10" ht="41.4">
       <c r="A17" s="103" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B17" s="102" t="s">
         <v>596</v>
@@ -4151,7 +4176,7 @@
     </row>
     <row r="18" spans="1:10" ht="100.8">
       <c r="A18" s="103" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B18" s="102" t="s">
         <v>596</v>
@@ -4163,7 +4188,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>497</v>
@@ -4175,7 +4200,7 @@
     </row>
     <row r="19" spans="1:10" ht="43.2">
       <c r="A19" s="105" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B19" s="102" t="s">
         <v>596</v>
@@ -4187,7 +4212,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F19" s="69"/>
       <c r="G19" s="66"/>
@@ -4197,7 +4222,7 @@
     </row>
     <row r="20" spans="1:10" ht="43.2">
       <c r="A20" s="101" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B20" s="102" t="s">
         <v>596</v>
@@ -4209,7 +4234,7 @@
         <v>266</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F20" s="48" t="s">
         <v>465</v>
@@ -4221,7 +4246,7 @@
     </row>
     <row r="21" spans="1:10" ht="41.4">
       <c r="A21" s="103" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B21" s="102" t="s">
         <v>596</v>
@@ -4243,7 +4268,7 @@
     </row>
     <row r="22" spans="1:10" ht="41.4">
       <c r="A22" s="103" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B22" s="102" t="s">
         <v>596</v>
@@ -4265,7 +4290,7 @@
     </row>
     <row r="23" spans="1:10" ht="41.4">
       <c r="A23" s="117" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B23" s="102" t="s">
         <v>596</v>
@@ -4274,7 +4299,7 @@
         <v>486</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="118" t="s">
@@ -4285,9 +4310,9 @@
       <c r="I23" s="32"/>
       <c r="J23" s="85"/>
     </row>
-    <row r="24" spans="1:10" ht="43.2">
+    <row r="24" spans="1:10" ht="27.6">
       <c r="A24" s="98" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B24" s="99" t="s">
         <v>595</v>
@@ -4298,7 +4323,7 @@
       <c r="D24" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="36" t="s">
         <v>261</v>
       </c>
       <c r="F24" s="48" t="s">
@@ -4311,7 +4336,7 @@
     </row>
     <row r="25" spans="1:10" ht="27.6">
       <c r="A25" s="98" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B25" s="99" t="s">
         <v>595</v>
@@ -4333,20 +4358,20 @@
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="57.6">
+    <row r="26" spans="1:10" ht="27.6">
       <c r="A26" s="100" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B26" s="99" t="s">
         <v>595</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D26" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="36" t="s">
         <v>380</v>
       </c>
       <c r="F26" s="48" t="s">
@@ -4359,7 +4384,7 @@
     </row>
     <row r="27" spans="1:10" ht="27.6">
       <c r="A27" s="98" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B27" s="99" t="s">
         <v>595</v>
@@ -4381,7 +4406,7 @@
     </row>
     <row r="28" spans="1:10" ht="27.6">
       <c r="A28" s="94" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B28" s="95" t="s">
         <v>594</v>
@@ -4401,7 +4426,7 @@
     </row>
     <row r="29" spans="1:10" ht="27.6">
       <c r="A29" s="94" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B29" s="95" t="s">
         <v>594</v>
@@ -4425,7 +4450,7 @@
     </row>
     <row r="30" spans="1:10" ht="27.6">
       <c r="A30" s="96" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>594</v>
@@ -4449,7 +4474,7 @@
     </row>
     <row r="31" spans="1:10" ht="57.6">
       <c r="A31" s="96" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B31" s="95" t="s">
         <v>594</v>
@@ -4473,7 +4498,7 @@
     </row>
     <row r="32" spans="1:10" ht="27.6">
       <c r="A32" s="94" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B32" s="95" t="s">
         <v>594</v>
@@ -4497,7 +4522,7 @@
     </row>
     <row r="33" spans="1:10" ht="27.6">
       <c r="A33" s="96" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B33" s="95" t="s">
         <v>594</v>
@@ -4521,7 +4546,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="88" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B34" s="89" t="s">
         <v>593</v>
@@ -4541,7 +4566,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="88" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B35" s="89" t="s">
         <v>593</v>
@@ -4561,7 +4586,7 @@
     </row>
     <row r="36" spans="1:10" ht="95.25" customHeight="1">
       <c r="A36" s="88" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B36" s="89" t="s">
         <v>593</v>
@@ -4583,7 +4608,7 @@
     </row>
     <row r="37" spans="1:10" ht="64.5" customHeight="1">
       <c r="A37" s="88" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B37" s="89" t="s">
         <v>593</v>
@@ -4605,7 +4630,7 @@
     </row>
     <row r="38" spans="1:10" ht="102.75" customHeight="1">
       <c r="A38" s="88" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B38" s="89" t="s">
         <v>593</v>
@@ -4629,7 +4654,7 @@
     </row>
     <row r="39" spans="1:10" ht="102.75" customHeight="1">
       <c r="A39" s="88" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B39" s="89" t="s">
         <v>593</v>
@@ -4653,7 +4678,7 @@
     </row>
     <row r="40" spans="1:10" ht="63" customHeight="1">
       <c r="A40" s="90" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B40" s="89" t="s">
         <v>593</v>
@@ -4677,7 +4702,7 @@
     </row>
     <row r="41" spans="1:10" ht="27.6">
       <c r="A41" s="92" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B41" s="89" t="s">
         <v>593</v>
@@ -4699,7 +4724,7 @@
     </row>
     <row r="42" spans="1:10" ht="86.4">
       <c r="A42" s="92" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B42" s="89" t="s">
         <v>593</v>
@@ -4721,7 +4746,7 @@
     </row>
     <row r="43" spans="1:10" ht="43.2">
       <c r="A43" s="93" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B43" s="93" t="s">
         <v>593</v>
@@ -4743,13 +4768,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="120" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B44" s="120" t="s">
         <v>593</v>
       </c>
       <c r="C44" s="120" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D44" s="81"/>
       <c r="E44" s="84"/>
@@ -4759,9 +4784,9 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" ht="43.2">
+    <row r="45" spans="1:10" ht="27.6">
       <c r="A45" s="93" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B45" s="93" t="s">
         <v>593</v>
@@ -4772,7 +4797,7 @@
       <c r="D45" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="36" t="s">
         <v>174</v>
       </c>
       <c r="F45" s="69"/>
@@ -4783,13 +4808,13 @@
     </row>
     <row r="46" spans="1:10" s="32" customFormat="1" ht="57.6">
       <c r="A46" s="100" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B46" s="100" t="s">
         <v>605</v>
       </c>
       <c r="C46" s="100" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D46" s="81" t="s">
         <v>606</v>
@@ -4800,12 +4825,16 @@
       <c r="F46" s="69" t="s">
         <v>608</v>
       </c>
-      <c r="G46" s="79"/>
-      <c r="H46" s="48"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="G46" s="129" t="s">
+        <v>704</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="57.6">
       <c r="A47" s="100" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B47" s="100" t="s">
         <v>605</v>
@@ -4814,34 +4843,38 @@
         <v>16</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>609</v>
-      </c>
-      <c r="E47" s="84"/>
+        <v>356</v>
+      </c>
+      <c r="E47" s="133" t="s">
+        <v>715</v>
+      </c>
       <c r="F47" s="69"/>
-      <c r="G47" s="79"/>
+      <c r="G47" s="129" t="s">
+        <v>704</v>
+      </c>
       <c r="H47" s="48"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" ht="72">
+    <row r="48" spans="1:10">
       <c r="A48" s="100" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B48" s="100" t="s">
         <v>605</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D48" s="81" t="s">
         <v>606</v>
       </c>
-      <c r="E48" s="84" t="s">
-        <v>616</v>
+      <c r="E48" s="127" t="s">
+        <v>709</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="129" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H48" s="48" t="s">
         <v>710</v>
@@ -4851,13 +4884,13 @@
     </row>
     <row r="49" spans="1:10" ht="57.6">
       <c r="A49" s="100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B49" s="100" t="s">
         <v>605</v>
       </c>
       <c r="C49" s="100" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>321</v>
@@ -4869,51 +4902,55 @@
         <v>432</v>
       </c>
       <c r="G49" s="128" t="s">
-        <v>705</v>
-      </c>
-      <c r="H49" s="48"/>
+        <v>703</v>
+      </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" ht="18" customHeight="1">
-      <c r="A50" s="104" t="s">
-        <v>647</v>
-      </c>
-      <c r="B50" s="104" t="s">
-        <v>634</v>
-      </c>
-      <c r="C50" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>639</v>
+      <c r="A50" s="130"/>
+      <c r="B50" s="130" t="s">
+        <v>605</v>
+      </c>
+      <c r="C50" s="130" t="s">
+        <v>711</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>606</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>648</v>
-      </c>
-      <c r="F50" s="114" t="s">
-        <v>643</v>
-      </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="48"/>
+        <v>712</v>
+      </c>
+      <c r="F50" s="118" t="s">
+        <v>713</v>
+      </c>
+      <c r="G50" s="131" t="s">
+        <v>704</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>714</v>
+      </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" ht="27.6">
       <c r="A51" s="104" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>649</v>
+        <v>646</v>
+      </c>
+      <c r="F51" s="114" t="s">
+        <v>641</v>
       </c>
       <c r="G51" s="79"/>
       <c r="H51" s="48"/>
@@ -4922,19 +4959,19 @@
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="104" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>639</v>
-      </c>
-      <c r="E52" s="84" t="s">
-        <v>650</v>
+        <v>637</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>647</v>
       </c>
       <c r="G52" s="79"/>
       <c r="H52" s="48"/>
@@ -4943,58 +4980,59 @@
     </row>
     <row r="53" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A53" s="104" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B53" s="104" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>403</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="G53" s="79"/>
+      <c r="H53" s="48"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" ht="27.6">
-      <c r="A54" s="115" t="s">
-        <v>698</v>
+    <row r="54" spans="1:10" ht="43.2">
+      <c r="A54" s="104" t="s">
+        <v>651</v>
       </c>
       <c r="B54" s="104" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>697</v>
+        <v>633</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="E54" s="84" t="s">
+        <v>403</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="27.6">
       <c r="A55" s="115" t="s">
-        <v>638</v>
-      </c>
-      <c r="B55" s="115" t="s">
-        <v>634</v>
-      </c>
-      <c r="C55" s="115" t="s">
-        <v>635</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>641</v>
-      </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="69" t="s">
-        <v>646</v>
+        <v>696</v>
+      </c>
+      <c r="B55" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="C55" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>695</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -5004,65 +5042,81 @@
         <v>636</v>
       </c>
       <c r="B56" s="115" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C56" s="115" t="s">
-        <v>637</v>
-      </c>
-      <c r="D56" s="116" t="s">
-        <v>640</v>
-      </c>
-      <c r="E56" s="84" t="s">
-        <v>642</v>
-      </c>
-      <c r="F56" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="E56" s="84"/>
+      <c r="F56" s="69" t="s">
         <v>644</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="144">
       <c r="A57" s="115" t="s">
-        <v>700</v>
+        <v>634</v>
       </c>
       <c r="B57" s="115" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C57" s="115" t="s">
         <v>635</v>
       </c>
       <c r="D57" s="116" t="s">
-        <v>303</v>
+        <v>638</v>
       </c>
       <c r="E57" s="84" t="s">
-        <v>699</v>
+        <v>640</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" ht="27.6">
-      <c r="A58" s="104" t="s">
-        <v>638</v>
-      </c>
-      <c r="B58" s="104" t="s">
-        <v>634</v>
-      </c>
-      <c r="C58" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>641</v>
+    <row r="58" spans="1:10">
+      <c r="A58" s="115" t="s">
+        <v>698</v>
+      </c>
+      <c r="B58" s="115" t="s">
+        <v>632</v>
+      </c>
+      <c r="C58" s="115" t="s">
+        <v>633</v>
+      </c>
+      <c r="D58" s="116" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="84" t="s">
+        <v>697</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>645</v>
+        <v>699</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="27.6">
+      <c r="A59" s="104" t="s">
+        <v>636</v>
+      </c>
+      <c r="B59" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="C59" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>643</v>
+      </c>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
@@ -5113,6 +5167,10 @@
     <row r="71" spans="9:10">
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
+    </row>
+    <row r="72" spans="9:10">
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5165,13 +5223,13 @@
     <hyperlink ref="E48" r:id="rId47"/>
     <hyperlink ref="D49" r:id="rId48" location="treibhausgas-emissionen-nach-kategorien"/>
     <hyperlink ref="D26" r:id="rId49" location="treibhausgas-emissionen-nach-kategorien"/>
-    <hyperlink ref="D58" r:id="rId50" display="SMARD"/>
-    <hyperlink ref="D50" r:id="rId51" display="AGEB"/>
-    <hyperlink ref="D56" r:id="rId52" display="AGEB"/>
-    <hyperlink ref="D55" r:id="rId53" display="SMARD"/>
-    <hyperlink ref="E50" r:id="rId54"/>
-    <hyperlink ref="E51" r:id="rId55"/>
-    <hyperlink ref="E52" r:id="rId56" display="https://ag-energiebilanzen.de/wp-content/uploads/2022/08/08_PEVQ2_2022.xlsx"/>
+    <hyperlink ref="D59" r:id="rId50" display="SMARD"/>
+    <hyperlink ref="D51" r:id="rId51" display="AGEB"/>
+    <hyperlink ref="D57" r:id="rId52" display="AGEB"/>
+    <hyperlink ref="D56" r:id="rId53" display="SMARD"/>
+    <hyperlink ref="E51" r:id="rId54"/>
+    <hyperlink ref="E52" r:id="rId55"/>
+    <hyperlink ref="E53" r:id="rId56" display="https://ag-energiebilanzen.de/wp-content/uploads/2022/08/08_PEVQ2_2022.xlsx"/>
     <hyperlink ref="E30" r:id="rId57"/>
     <hyperlink ref="D12" r:id="rId58"/>
     <hyperlink ref="D13" r:id="rId59"/>
@@ -5179,18 +5237,23 @@
     <hyperlink ref="E2" r:id="rId61"/>
     <hyperlink ref="D2" r:id="rId62"/>
     <hyperlink ref="D3" r:id="rId63" location="Kraftwerke%20%20--%3E%20Datenbank%20Kraftwerke%20in%20Deutschland"/>
-    <hyperlink ref="E54" r:id="rId64"/>
-    <hyperlink ref="D54" r:id="rId65" location="abreadcrumb"/>
-    <hyperlink ref="D51" r:id="rId66" display="AGEB"/>
-    <hyperlink ref="D52" r:id="rId67" display="AGEB"/>
-    <hyperlink ref="D53" r:id="rId68" display="AGEB"/>
+    <hyperlink ref="E55" r:id="rId64"/>
+    <hyperlink ref="D55" r:id="rId65" location="abreadcrumb"/>
+    <hyperlink ref="D52" r:id="rId66" display="AGEB"/>
+    <hyperlink ref="D53" r:id="rId67" display="AGEB"/>
+    <hyperlink ref="D54" r:id="rId68" display="AGEB"/>
     <hyperlink ref="E14" r:id="rId69"/>
+    <hyperlink ref="E50" r:id="rId70"/>
+    <hyperlink ref="E26" r:id="rId71"/>
+    <hyperlink ref="E6" r:id="rId72"/>
+    <hyperlink ref="E24" r:id="rId73"/>
+    <hyperlink ref="E45" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
-  <legacyDrawing r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
+  <legacyDrawing r:id="rId76"/>
   <tableParts count="1">
-    <tablePart r:id="rId72"/>
+    <tablePart r:id="rId77"/>
   </tableParts>
 </worksheet>
 </file>

--- a/00_Umformungen_Variablen_dUKE.xlsx
+++ b/00_Umformungen_Variablen_dUKE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18840" windowHeight="6750"/>
+    <workbookView xWindow="360" yWindow="12" windowWidth="18840" windowHeight="6756"/>
   </bookViews>
   <sheets>
     <sheet name="23-Q2" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Weidling, Linda:</t>
         </r>
@@ -43,7 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>unter Datenbank "Kraftwerke in Deutschland"</t>
         </r>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="726">
   <si>
     <t>ID2</t>
   </si>
@@ -2006,6 +2006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Prozentuale Veränderung des Erdgasverbrauchs der Haushalts- und Gewerbekunden, sowie der Industriekunden gegenüber ihrem Durchschnittsverbrauch in den Jahren 2018-2021</t>
@@ -2687,9 +2688,6 @@
     <t>Anzal</t>
   </si>
   <si>
-    <t xml:space="preserve">Entfernen der Informationen außerhalb der Tabelle </t>
-  </si>
-  <si>
     <t>https://www.dashboard-deutschland.de/indicator/tile_1667921381760?origin=dashboard&amp;db=energie&amp;category=energie</t>
   </si>
   <si>
@@ -2712,6 +2710,18 @@
   </si>
   <si>
     <t>Überführung der Daten in gov_temp_m in ein Long-Format, um Unterschiede zum Durchschnitt darzustellen</t>
+  </si>
+  <si>
+    <t>Entfernen der Informationen außerhab der Tabelle; Herauslöschen der Werte Stichtag &lt; 31.12.1990</t>
+  </si>
+  <si>
+    <t>API lädt csv in korrekter Darstellung runter; Anpassung der Monatsspalte</t>
+  </si>
+  <si>
+    <t>Anpassung des Codes im Markdown, um Daten im Wide-Format zu erhalten</t>
+  </si>
+  <si>
+    <t>Entfernen der Informationen außerhalb der Tabelle; geteilt durch 1000</t>
   </si>
 </sst>
 </file>
@@ -2721,11 +2731,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##,00#,#00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2878,13 +2902,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2907,6 +2931,7 @@
       <sz val="10"/>
       <color indexed="65"/>
       <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3061,71 +3086,71 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3133,292 +3158,295 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="25" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="27" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="28" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3756,27 +3784,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="85" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="255.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="81.5703125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="59.42578125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="22"/>
+    <col min="1" max="1" width="21.44140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="85" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="255.5546875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="81.5546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="59.44140625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27">
+    <row r="1" spans="1:10" ht="27.6">
       <c r="A1" s="59" t="s">
         <v>615</v>
       </c>
@@ -3808,7 +3836,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90">
+    <row r="2" spans="1:10" ht="72">
       <c r="A2" s="53" t="s">
         <v>687</v>
       </c>
@@ -3836,7 +3864,7 @@
       <c r="I2" s="53"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" ht="45">
+    <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="53" t="s">
         <v>686</v>
       </c>
@@ -3860,7 +3888,7 @@
       <c r="I3" s="53"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="27">
+    <row r="4" spans="1:10" ht="27.6">
       <c r="A4" s="53" t="s">
         <v>672</v>
       </c>
@@ -3908,7 +3936,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="27">
+    <row r="6" spans="1:10" ht="27.6">
       <c r="A6" s="107" t="s">
         <v>654</v>
       </c>
@@ -3982,7 +4010,7 @@
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="27">
+    <row r="9" spans="1:10" ht="27.6">
       <c r="A9" s="110" t="s">
         <v>657</v>
       </c>
@@ -4136,7 +4164,7 @@
       <c r="I14" s="32"/>
       <c r="J14" s="126"/>
     </row>
-    <row r="15" spans="1:10" ht="45">
+    <row r="15" spans="1:10" ht="43.2">
       <c r="A15" s="103" t="s">
         <v>624</v>
       </c>
@@ -4162,7 +4190,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:10" ht="43.2">
       <c r="A16" s="103" t="s">
         <v>626</v>
       </c>
@@ -4188,7 +4216,7 @@
       <c r="I16" s="32"/>
       <c r="J16" s="125"/>
     </row>
-    <row r="17" spans="1:10" ht="40.5">
+    <row r="17" spans="1:10" ht="41.4">
       <c r="A17" s="103" t="s">
         <v>629</v>
       </c>
@@ -4210,7 +4238,7 @@
       <c r="I17" s="32"/>
       <c r="J17" s="125"/>
     </row>
-    <row r="18" spans="1:10" ht="120">
+    <row r="18" spans="1:10" ht="100.8">
       <c r="A18" s="103" t="s">
         <v>630</v>
       </c>
@@ -4234,7 +4262,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="85"/>
     </row>
-    <row r="19" spans="1:10" ht="45">
+    <row r="19" spans="1:10" ht="43.2">
       <c r="A19" s="105" t="s">
         <v>631</v>
       </c>
@@ -4256,7 +4284,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="1:10" ht="45">
+    <row r="20" spans="1:10" ht="43.2">
       <c r="A20" s="101" t="s">
         <v>625</v>
       </c>
@@ -4280,7 +4308,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="85"/>
     </row>
-    <row r="21" spans="1:10" ht="40.5">
+    <row r="21" spans="1:10" ht="41.4">
       <c r="A21" s="103" t="s">
         <v>627</v>
       </c>
@@ -4302,7 +4330,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="125"/>
     </row>
-    <row r="22" spans="1:10" ht="40.5">
+    <row r="22" spans="1:10" ht="41.4">
       <c r="A22" s="103" t="s">
         <v>628</v>
       </c>
@@ -4324,7 +4352,7 @@
       <c r="I22" s="32"/>
       <c r="J22" s="125"/>
     </row>
-    <row r="23" spans="1:10" ht="40.5">
+    <row r="23" spans="1:10" ht="41.4">
       <c r="A23" s="117" t="s">
         <v>663</v>
       </c>
@@ -4346,7 +4374,7 @@
       <c r="I23" s="32"/>
       <c r="J23" s="85"/>
     </row>
-    <row r="24" spans="1:10" ht="27">
+    <row r="24" spans="1:10" ht="27.6">
       <c r="A24" s="98" t="s">
         <v>669</v>
       </c>
@@ -4365,12 +4393,16 @@
       <c r="F24" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="48"/>
+      <c r="G24" s="134" t="s">
+        <v>704</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>723</v>
+      </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="27">
+    <row r="25" spans="1:10" ht="27.6">
       <c r="A25" s="98" t="s">
         <v>670</v>
       </c>
@@ -4389,12 +4421,14 @@
       <c r="F25" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="G25" s="66"/>
+      <c r="G25" s="134" t="s">
+        <v>704</v>
+      </c>
       <c r="H25" s="48"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="27">
+    <row r="26" spans="1:10" ht="27.6">
       <c r="A26" s="100" t="s">
         <v>619</v>
       </c>
@@ -4413,12 +4447,14 @@
       <c r="F26" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="135" t="s">
+        <v>704</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="27">
+    <row r="27" spans="1:10" ht="27.6">
       <c r="A27" s="98" t="s">
         <v>671</v>
       </c>
@@ -4435,12 +4471,16 @@
         <v>601</v>
       </c>
       <c r="F27" s="48"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="48"/>
+      <c r="G27" s="122" t="s">
+        <v>703</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>724</v>
+      </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="27">
+    <row r="28" spans="1:10" ht="27.6">
       <c r="A28" s="94" t="s">
         <v>622</v>
       </c>
@@ -4462,9 +4502,9 @@
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="27">
+    <row r="29" spans="1:10" ht="27.6">
       <c r="A29" s="136" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B29" s="95" t="s">
         <v>594</v>
@@ -4481,12 +4521,12 @@
         <v>704</v>
       </c>
       <c r="H29" s="137" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="27">
+    <row r="30" spans="1:10" ht="27.6">
       <c r="A30" s="94" t="s">
         <v>621</v>
       </c>
@@ -4512,7 +4552,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="27">
+    <row r="31" spans="1:10" ht="27.6">
       <c r="A31" s="96" t="s">
         <v>620</v>
       </c>
@@ -4535,12 +4575,12 @@
         <v>704</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" ht="27">
+    <row r="32" spans="1:10" ht="27.6">
       <c r="A32" s="96" t="s">
         <v>623</v>
       </c>
@@ -4566,7 +4606,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" ht="27">
+    <row r="33" spans="1:10" ht="27.6">
       <c r="A33" s="94" t="s">
         <v>618</v>
       </c>
@@ -4592,7 +4632,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" ht="27">
+    <row r="34" spans="1:10" ht="27.6">
       <c r="A34" s="96" t="s">
         <v>617</v>
       </c>
@@ -4615,7 +4655,7 @@
         <v>704</v>
       </c>
       <c r="H34" s="48" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -4752,7 +4792,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="45">
+    <row r="41" spans="1:10" ht="43.2">
       <c r="A41" s="90" t="s">
         <v>679</v>
       </c>
@@ -4776,7 +4816,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" ht="27">
+    <row r="42" spans="1:10" ht="27.6">
       <c r="A42" s="92" t="s">
         <v>683</v>
       </c>
@@ -4798,7 +4838,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" ht="90">
+    <row r="43" spans="1:10" ht="86.4">
       <c r="A43" s="92" t="s">
         <v>680</v>
       </c>
@@ -4820,7 +4860,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" ht="45">
+    <row r="44" spans="1:10" ht="43.2">
       <c r="A44" s="93" t="s">
         <v>681</v>
       </c>
@@ -4860,7 +4900,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="32" customFormat="1" ht="27">
+    <row r="46" spans="1:10" s="32" customFormat="1" ht="27.6">
       <c r="A46" s="93" t="s">
         <v>682</v>
       </c>
@@ -4880,7 +4920,7 @@
       <c r="G46" s="79"/>
       <c r="H46" s="48"/>
     </row>
-    <row r="47" spans="1:10" ht="60">
+    <row r="47" spans="1:10" ht="57.6">
       <c r="A47" s="100" t="s">
         <v>611</v>
       </c>
@@ -4908,7 +4948,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" ht="60">
+    <row r="48" spans="1:10" ht="57.6">
       <c r="A48" s="100" t="s">
         <v>612</v>
       </c>
@@ -4922,7 +4962,7 @@
         <v>356</v>
       </c>
       <c r="E48" s="133" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F48" s="69"/>
       <c r="G48" s="129" t="s">
@@ -4985,7 +5025,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="130" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B51" s="130" t="s">
         <v>605</v>
@@ -5006,14 +5046,14 @@
         <v>704</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="130" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B52" s="130" t="s">
         <v>605</v>
@@ -5025,7 +5065,7 @@
         <v>606</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F52" s="118" t="s">
         <v>713</v>
@@ -5036,7 +5076,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" ht="20.45" customHeight="1">
+    <row r="53" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A53" s="104" t="s">
         <v>645</v>
       </c>
@@ -5060,7 +5100,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" ht="27">
+    <row r="54" spans="1:10" ht="27.6">
       <c r="A54" s="104" t="s">
         <v>649</v>
       </c>
@@ -5081,7 +5121,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" ht="45">
+    <row r="55" spans="1:10" ht="43.2">
       <c r="A55" s="104" t="s">
         <v>650</v>
       </c>
@@ -5102,7 +5142,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" ht="28.9" customHeight="1">
+    <row r="56" spans="1:10" ht="28.95" customHeight="1">
       <c r="A56" s="104" t="s">
         <v>651</v>
       </c>
@@ -5121,7 +5161,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" ht="27">
+    <row r="57" spans="1:10" ht="27.6">
       <c r="A57" s="115" t="s">
         <v>696</v>
       </c>
@@ -5136,6 +5176,12 @@
       </c>
       <c r="E57" s="36" t="s">
         <v>695</v>
+      </c>
+      <c r="G57" s="138" t="s">
+        <v>704</v>
+      </c>
+      <c r="H57" s="139" t="s">
+        <v>722</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
@@ -5160,7 +5206,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" ht="180">
+    <row r="59" spans="1:10" ht="144">
       <c r="A59" s="115" t="s">
         <v>634</v>
       </c>
@@ -5204,7 +5250,7 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" ht="27">
+    <row r="61" spans="1:10" ht="27.6">
       <c r="A61" s="104" t="s">
         <v>636</v>
       </c>
@@ -5372,19 +5418,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="21.42578125" style="32" customWidth="1"/>
+    <col min="1" max="3" width="21.44140625" style="32" customWidth="1"/>
     <col min="4" max="4" width="64" style="32" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="32" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="32"/>
-    <col min="11" max="13" width="18.5703125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="255.5703125" style="32" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="32" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" style="32"/>
+    <col min="11" max="13" width="18.5546875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="255.5546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27">
+    <row r="1" spans="1:14" ht="27.6">
       <c r="A1" s="59" t="s">
         <v>407</v>
       </c>
@@ -5426,7 +5472,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="27">
+    <row r="2" spans="1:14" ht="27.6">
       <c r="A2" s="49" t="s">
         <v>420</v>
       </c>
@@ -5458,7 +5504,7 @@
       <c r="M2" s="66"/>
       <c r="N2" s="56"/>
     </row>
-    <row r="3" spans="1:14" ht="69.75">
+    <row r="3" spans="1:14" ht="57">
       <c r="A3" s="49" t="s">
         <v>424</v>
       </c>
@@ -5490,7 +5536,7 @@
       <c r="M3" s="66"/>
       <c r="N3" s="56"/>
     </row>
-    <row r="4" spans="1:14" ht="69.75">
+    <row r="4" spans="1:14" ht="57">
       <c r="A4" s="49" t="s">
         <v>426</v>
       </c>
@@ -5524,7 +5570,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="27">
+    <row r="5" spans="1:14" ht="27.6">
       <c r="A5" s="49" t="s">
         <v>430</v>
       </c>
@@ -5560,7 +5606,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="40.5">
+    <row r="6" spans="1:14" ht="41.4">
       <c r="A6" s="53" t="s">
         <v>435</v>
       </c>
@@ -5602,7 +5648,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="81">
+    <row r="7" spans="1:14" ht="82.8">
       <c r="A7" s="53" t="s">
         <v>442</v>
       </c>
@@ -5644,7 +5690,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="54">
+    <row r="8" spans="1:14" ht="55.2">
       <c r="A8" s="57" t="s">
         <v>446</v>
       </c>
@@ -5682,7 +5728,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="67.5">
+    <row r="9" spans="1:14" ht="69">
       <c r="A9" s="55" t="s">
         <v>451</v>
       </c>
@@ -5722,7 +5768,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="22" customFormat="1" ht="67.5">
+    <row r="10" spans="1:14" s="22" customFormat="1" ht="69">
       <c r="A10" s="55" t="s">
         <v>455</v>
       </c>
@@ -5758,7 +5804,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="108">
+    <row r="11" spans="1:14" ht="110.4">
       <c r="A11" s="55" t="s">
         <v>458</v>
       </c>
@@ -5796,7 +5842,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="108">
+    <row r="12" spans="1:14" ht="96.6">
       <c r="A12" s="49" t="s">
         <v>462</v>
       </c>
@@ -5838,7 +5884,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="67.5">
+    <row r="13" spans="1:14" ht="69">
       <c r="A13" s="53" t="s">
         <v>470</v>
       </c>
@@ -5880,7 +5926,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="67.5">
+    <row r="14" spans="1:14" ht="69">
       <c r="A14" s="53" t="s">
         <v>475</v>
       </c>
@@ -5922,7 +5968,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="54">
+    <row r="15" spans="1:14" ht="55.2">
       <c r="A15" s="53" t="s">
         <v>479</v>
       </c>
@@ -5960,7 +6006,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="81">
+    <row r="16" spans="1:14" ht="82.8">
       <c r="A16" s="55" t="s">
         <v>487</v>
       </c>
@@ -5998,7 +6044,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="81">
+    <row r="17" spans="1:14" ht="82.8">
       <c r="A17" s="55" t="s">
         <v>492</v>
       </c>
@@ -6034,7 +6080,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="22" customFormat="1" ht="108">
+    <row r="18" spans="1:14" s="22" customFormat="1" ht="110.4">
       <c r="A18" s="55" t="s">
         <v>494</v>
       </c>
@@ -6072,7 +6118,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="27">
+    <row r="19" spans="1:14" ht="27.6">
       <c r="A19" s="53" t="s">
         <v>501</v>
       </c>
@@ -6108,7 +6154,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="67.5">
+    <row r="20" spans="1:14" ht="69">
       <c r="A20" s="70" t="s">
         <v>506</v>
       </c>
@@ -6150,7 +6196,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="54">
+    <row r="21" spans="1:14" ht="55.2">
       <c r="A21" s="49" t="s">
         <v>512</v>
       </c>
@@ -6186,7 +6232,7 @@
       </c>
       <c r="N21" s="56"/>
     </row>
-    <row r="22" spans="1:14" ht="94.5">
+    <row r="22" spans="1:14" ht="96.6">
       <c r="A22" s="55" t="s">
         <v>515</v>
       </c>
@@ -6222,7 +6268,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="27">
+    <row r="23" spans="1:14" ht="27.6">
       <c r="A23" s="55" t="s">
         <v>519</v>
       </c>
@@ -6254,7 +6300,7 @@
       <c r="M23" s="66"/>
       <c r="N23" s="56"/>
     </row>
-    <row r="24" spans="1:14" ht="81">
+    <row r="24" spans="1:14" ht="82.8">
       <c r="A24" s="53" t="s">
         <v>521</v>
       </c>
@@ -6294,7 +6340,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="81">
+    <row r="25" spans="1:14" ht="82.8">
       <c r="A25" s="49" t="s">
         <v>524</v>
       </c>
@@ -6334,7 +6380,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45">
+    <row r="26" spans="1:14" ht="43.2">
       <c r="A26" s="70" t="s">
         <v>527</v>
       </c>
@@ -6368,7 +6414,7 @@
       </c>
       <c r="N26" s="61"/>
     </row>
-    <row r="27" spans="1:14" ht="54">
+    <row r="27" spans="1:14" ht="55.2">
       <c r="A27" s="57" t="s">
         <v>533</v>
       </c>
@@ -6408,7 +6454,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="27">
+    <row r="28" spans="1:14" ht="27.6">
       <c r="A28" s="55" t="s">
         <v>537</v>
       </c>
@@ -6442,7 +6488,7 @@
       <c r="M28" s="66"/>
       <c r="N28" s="48"/>
     </row>
-    <row r="29" spans="1:14" ht="94.5">
+    <row r="29" spans="1:14" ht="96.6">
       <c r="A29" s="83" t="s">
         <v>540</v>
       </c>
@@ -6484,7 +6530,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="81">
+    <row r="30" spans="1:14" ht="82.8">
       <c r="A30" s="55" t="s">
         <v>549</v>
       </c>
@@ -6524,7 +6570,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="148.5">
+    <row r="31" spans="1:14" ht="151.80000000000001">
       <c r="A31" s="49" t="s">
         <v>554</v>
       </c>
@@ -6564,7 +6610,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="54">
+    <row r="32" spans="1:14" ht="55.2">
       <c r="A32" s="49" t="s">
         <v>560</v>
       </c>
@@ -6600,7 +6646,7 @@
       </c>
       <c r="N32" s="48"/>
     </row>
-    <row r="33" spans="1:14" ht="54">
+    <row r="33" spans="1:14" ht="55.2">
       <c r="A33" s="49" t="s">
         <v>565</v>
       </c>
@@ -6638,7 +6684,7 @@
       </c>
       <c r="N33" s="48"/>
     </row>
-    <row r="34" spans="1:14" ht="310.5">
+    <row r="34" spans="1:14" ht="317.39999999999998">
       <c r="A34" s="49" t="s">
         <v>568</v>
       </c>
@@ -6678,7 +6724,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="310.5">
+    <row r="35" spans="1:14" ht="317.39999999999998">
       <c r="A35" s="73" t="s">
         <v>574</v>
       </c>
@@ -6718,7 +6764,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="54">
+    <row r="36" spans="1:14" ht="55.2">
       <c r="A36" s="53" t="s">
         <v>579</v>
       </c>
@@ -6760,7 +6806,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="120">
+    <row r="37" spans="1:14" ht="100.8">
       <c r="A37" s="53" t="s">
         <v>585</v>
       </c>
@@ -6798,7 +6844,7 @@
       </c>
       <c r="N37" s="48"/>
     </row>
-    <row r="38" spans="1:14" ht="54">
+    <row r="38" spans="1:14" ht="55.2">
       <c r="A38" s="53" t="s">
         <v>587</v>
       </c>
@@ -6836,7 +6882,7 @@
       </c>
       <c r="N38" s="48"/>
     </row>
-    <row r="39" spans="1:14" ht="60">
+    <row r="39" spans="1:14" ht="55.2">
       <c r="A39" s="70" t="s">
         <v>591</v>
       </c>
@@ -6950,22 +6996,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="8" width="30.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="8" width="30.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="82.5703125" customWidth="1"/>
-    <col min="12" max="12" width="100.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="82.5546875" customWidth="1"/>
+    <col min="12" max="12" width="100.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
     <col min="15" max="15" width="34" customWidth="1"/>
-    <col min="16" max="23" width="11.42578125" style="33"/>
+    <col min="16" max="23" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7015,7 +7061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30">
+    <row r="2" spans="1:16">
       <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
@@ -7071,7 +7117,7 @@
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="30">
+    <row r="4" spans="1:16" ht="28.8">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>16</v>
@@ -7101,7 +7147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30">
+    <row r="5" spans="1:16" ht="28.8">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>16</v>
@@ -7131,7 +7177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45">
+    <row r="6" spans="1:16" ht="28.8">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>16</v>
@@ -7169,7 +7215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45">
+    <row r="7" spans="1:16" ht="28.8">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>16</v>
@@ -7207,7 +7253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="45">
+    <row r="8" spans="1:16" ht="28.8">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>16</v>
@@ -7245,7 +7291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45">
+    <row r="9" spans="1:16" ht="28.8">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>16</v>
@@ -7449,7 +7495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30">
+    <row r="14" spans="1:16" ht="28.8">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>67</v>
@@ -7519,7 +7565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30">
+    <row r="16" spans="1:16" ht="28.8">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>67</v>
@@ -7549,7 +7595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" customHeight="1">
+    <row r="17" spans="1:17" ht="14.4" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>67</v>
@@ -7582,7 +7628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="45">
+    <row r="18" spans="1:17" ht="28.8">
       <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>84</v>
@@ -7725,7 +7771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30">
+    <row r="23" spans="1:17" ht="28.8">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
         <v>90</v>
@@ -7760,7 +7806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="30">
+    <row r="24" spans="1:17" ht="28.8">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>90</v>
@@ -7795,7 +7841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30">
+    <row r="25" spans="1:17" ht="28.8">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>90</v>
@@ -8182,7 +8228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="45">
+    <row r="37" spans="1:15" ht="43.2">
       <c r="A37" s="13"/>
       <c r="B37" t="s">
         <v>90</v>
@@ -8223,7 +8269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="45">
+    <row r="38" spans="1:15" ht="43.2">
       <c r="A38" s="13"/>
       <c r="B38" t="s">
         <v>90</v>
@@ -8264,7 +8310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15">
       <c r="A39" s="13" t="s">
         <v>140</v>
       </c>
@@ -8315,7 +8361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="30">
+    <row r="41" spans="1:15" ht="28.8">
       <c r="A41" s="13"/>
       <c r="B41" t="s">
         <v>90</v>
@@ -8350,7 +8396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="45">
+    <row r="42" spans="1:15" ht="43.2">
       <c r="A42" s="13"/>
       <c r="B42" t="s">
         <v>90</v>
@@ -8391,7 +8437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15">
       <c r="A43" s="13" t="s">
         <v>151</v>
       </c>
@@ -8426,7 +8472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row r="44" spans="1:15" ht="28.8">
       <c r="A44" s="13"/>
       <c r="B44" t="s">
         <v>90</v>
@@ -8462,7 +8508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row r="45" spans="1:15" ht="43.2">
       <c r="A45" s="13"/>
       <c r="B45" t="s">
         <v>124</v>
@@ -8503,7 +8549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30">
+    <row r="46" spans="1:15" ht="28.8">
       <c r="A46" s="13"/>
       <c r="B46" t="s">
         <v>90</v>
@@ -8667,7 +8713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="45">
+    <row r="51" spans="1:16" ht="28.8">
       <c r="A51" s="13"/>
       <c r="B51" t="s">
         <v>124</v>
@@ -8752,7 +8798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="30">
+    <row r="53" spans="1:16" ht="28.8">
       <c r="A53" s="13"/>
       <c r="B53" t="s">
         <v>124</v>
@@ -8935,7 +8981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="30">
+    <row r="58" spans="1:16" ht="28.8">
       <c r="A58" s="13"/>
       <c r="B58" t="s">
         <v>196</v>
@@ -9014,7 +9060,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="30">
+    <row r="60" spans="1:16" ht="28.8">
       <c r="A60" s="20"/>
       <c r="B60" t="s">
         <v>16</v>
@@ -9055,7 +9101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="30">
+    <row r="61" spans="1:16">
       <c r="A61" s="20" t="s">
         <v>220</v>
       </c>
@@ -9250,7 +9296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="45">
+    <row r="66" spans="1:15" ht="43.2">
       <c r="A66" s="20"/>
       <c r="B66" t="s">
         <v>16</v>
@@ -9373,7 +9419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="30">
+    <row r="69" spans="1:15" ht="28.8">
       <c r="A69" s="20"/>
       <c r="B69" t="s">
         <v>16</v>
@@ -9414,7 +9460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="30">
+    <row r="70" spans="1:15">
       <c r="A70" s="20" t="s">
         <v>252</v>
       </c>
@@ -9456,7 +9502,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="30">
+    <row r="72" spans="1:15">
       <c r="A72" s="20" t="s">
         <v>259</v>
       </c>
@@ -9698,7 +9744,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="45">
+    <row r="79" spans="1:15" ht="43.2">
       <c r="A79" s="20" t="s">
         <v>286</v>
       </c>
@@ -10151,7 +10197,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="22" customFormat="1" ht="30">
+    <row r="94" spans="1:23" s="22" customFormat="1">
       <c r="A94" s="20" t="s">
         <v>336</v>
       </c>
@@ -10191,7 +10237,7 @@
       <c r="V94" s="33"/>
       <c r="W94" s="33"/>
     </row>
-    <row r="95" spans="1:23" s="22" customFormat="1" ht="30">
+    <row r="95" spans="1:23" s="22" customFormat="1" ht="28.8">
       <c r="A95" s="20" t="s">
         <v>339</v>
       </c>
